--- a/output/Automatic_Labeling_Kyoogu/isolated_observations.xlsx
+++ b/output/Automatic_Labeling_Kyoogu/isolated_observations.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEND</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -493,7 +493,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -525,7 +525,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEND</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -557,7 +557,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEND</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEND</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -621,7 +621,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEND</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DEND</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRGL</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -749,7 +749,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOAN</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MMLS</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PTGN</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -797,7 +797,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MMLS</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -813,7 +813,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PTGN</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -829,7 +829,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PTGN</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -845,7 +845,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOAN</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -861,7 +861,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PTGN</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -877,7 +877,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MMLS</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -909,7 +909,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PTGN</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -957,7 +957,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -989,7 +989,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BOAN</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BOAN</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BOAN</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MMLS</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MMLS</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PTGN</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FUSC</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BOAN</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDPX</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRAG</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C109" t="n">

--- a/output/Automatic_Labeling_Kyoogu/isolated_observations.xlsx
+++ b/output/Automatic_Labeling_Kyoogu/isolated_observations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,23 +457,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>511</v>
+        <v>1380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>514</v>
+        <v>1370</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1364</v>
+        <v>1380</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -489,15 +489,15 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>1368</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Troglodytes_aedon</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1364</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Troglodytes_aedon</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1368</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -513,15 +513,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>517</v>
+        <v>476</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1361</v>
+        <v>1376</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,15 +553,15 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>525</v>
+        <v>1371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>427</v>
+        <v>1372</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,15 +569,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1361</v>
+        <v>528</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1380</v>
+        <v>506</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,15 +585,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>492</v>
+        <v>1372</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>525</v>
+        <v>1371</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,15 +601,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1370</v>
+        <v>479</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1361</v>
+        <v>484</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -625,23 +625,23 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1372</v>
+        <v>484</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1371</v>
+        <v>479</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,15 +649,15 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>506</v>
+        <v>1356</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>505</v>
+        <v>1359</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,15 +665,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>1375</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Troglodytes_aedon</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>1377</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Troglodytes_aedon</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1366</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,63 +713,63 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>664</v>
+        <v>468</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>634</v>
+        <v>481</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>938</v>
+        <v>1373</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1040</v>
+        <v>1377</v>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>171</v>
+        <v>1363</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>196</v>
+        <v>1358</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1175</v>
+        <v>483</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1168</v>
+        <v>482</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,103 +777,103 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1216</v>
+        <v>1358</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1289</v>
+        <v>1363</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1171</v>
+        <v>905</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1185</v>
+        <v>1153</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1200</v>
+        <v>838</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1338</v>
+        <v>831</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1259</v>
+        <v>903</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1198</v>
+        <v>904</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>171</v>
+        <v>358</v>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1198</v>
+        <v>249</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1259</v>
+        <v>248</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1040</v>
+        <v>944</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -881,39 +881,39 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1115</v>
+        <v>943</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1169</v>
+        <v>248</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1174</v>
+        <v>238</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1193</v>
+        <v>358</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1198</v>
+        <v>423</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -921,31 +921,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1115</v>
+        <v>423</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1113</v>
+        <v>358</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>566</v>
+        <v>419</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>743</v>
+        <v>386</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -953,31 +953,31 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1113</v>
+        <v>745</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1115</v>
+        <v>725</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>743</v>
+        <v>386</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>566</v>
+        <v>419</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -985,31 +985,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1117</v>
+        <v>236</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1012</v>
+        <v>246</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>687</v>
+        <v>400</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>655</v>
+        <v>386</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>957</v>
+        <v>1115</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>953</v>
+        <v>1116</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1033,23 +1033,23 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>392</v>
+        <v>716</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>404</v>
+        <v>723</v>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1029</v>
+        <v>1116</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>958</v>
+        <v>1115</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1065,63 +1065,63 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>404</v>
+        <v>718</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>392</v>
+        <v>716</v>
       </c>
       <c r="D40" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>393</v>
+        <v>841</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>420</v>
+        <v>836</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1119</v>
+        <v>1180</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1143</v>
+        <v>1183</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>556</v>
+        <v>1183</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>781</v>
+        <v>1180</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
@@ -1129,111 +1129,111 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>420</v>
+        <v>1182</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>393</v>
+        <v>1183</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>414</v>
+        <v>1184</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>352</v>
+        <v>1182</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>551</v>
+        <v>1167</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>858</v>
+        <v>1174</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>352</v>
+        <v>1171</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>414</v>
+        <v>1185</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>877</v>
+        <v>1199</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1055</v>
+        <v>1351</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>856</v>
+        <v>1186</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>630</v>
+        <v>1181</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>887</v>
+        <v>1351</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1057</v>
+        <v>1199</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1241,15 +1241,15 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>359</v>
+        <v>1179</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>363</v>
+        <v>1186</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1257,23 +1257,23 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1057</v>
+        <v>700</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1281,23 +1281,23 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>978</v>
+        <v>251</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1057</v>
+        <v>264</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1305,23 +1305,23 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>857</v>
+        <v>415</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>647</v>
+        <v>416</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1329,39 +1329,39 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1038</v>
+        <v>860</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1030</v>
+        <v>700</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1104</v>
+        <v>739</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1023</v>
+        <v>736</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1369,31 +1369,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>109</v>
+        <v>1041</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>170</v>
+        <v>1007</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1023</v>
+        <v>736</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1104</v>
+        <v>739</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1409,23 +1409,23 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>614</v>
+        <v>244</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>623</v>
+        <v>243</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1441,55 +1441,55 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>874</v>
+        <v>243</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1161</v>
+        <v>244</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>378</v>
+        <v>738</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>379</v>
+        <v>734</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1016</v>
+        <v>242</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1067</v>
+        <v>243</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1505,63 +1505,63 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>385</v>
+        <v>853</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>422</v>
+        <v>729</v>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>642</v>
+        <v>385</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>631</v>
+        <v>392</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>398</v>
+        <v>954</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>371</v>
+        <v>957</v>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1569,15 +1569,15 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>863</v>
+        <v>989</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1585,71 +1585,71 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>960</v>
+        <v>1096</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>373</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>898</v>
+        <v>547</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1061</v>
+        <v>556</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>355</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Dendroplex_picus</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>367</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Dendroplex_picus</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>375</v>
-      </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1061</v>
+        <v>367</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>898</v>
+        <v>376</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1657,15 +1657,15 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>370</v>
+        <v>892</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>367</v>
+        <v>975</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1681,58 +1681,58 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D78" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>395</v>
+        <v>627</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>409</v>
+        <v>678</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>903</v>
+        <v>370</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>974</v>
+        <v>376</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1041</v>
+        <v>366</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>971</v>
+        <v>370</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -1745,63 +1745,63 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>424</v>
+        <v>157</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>240</v>
+        <v>916</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>252</v>
+        <v>974</v>
       </c>
       <c r="D84" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>402</v>
+        <v>678</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>394</v>
+        <v>693</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1809,15 +1809,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D86" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1825,111 +1825,111 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="D87" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>746</v>
+        <v>161</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>706</v>
+        <v>156</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1112</v>
+        <v>393</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1116</v>
+        <v>397</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>929</v>
+        <v>552</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1112</v>
+        <v>555</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>419</v>
+        <v>159</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>386</v>
+        <v>167</v>
       </c>
       <c r="D91" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>386</v>
+        <v>172</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>419</v>
+        <v>171</v>
       </c>
       <c r="D92" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>927</v>
+        <v>171</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>933</v>
+        <v>172</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>745</v>
+        <v>795</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1937,31 +1937,31 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>714</v>
+        <v>626</v>
       </c>
       <c r="D94" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>924</v>
+        <v>1175</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1163</v>
+        <v>1178</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1969,39 +1969,39 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>838</v>
+        <v>378</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>835</v>
+        <v>381</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>390</v>
+        <v>870</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>401</v>
+        <v>867</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,135 +2025,135 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>939</v>
+        <v>418</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>935</v>
+        <v>381</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>937</v>
+        <v>844</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>939</v>
+        <v>633</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1180</v>
+        <v>633</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1167</v>
+        <v>844</v>
       </c>
       <c r="D102" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1167</v>
+        <v>843</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1180</v>
+        <v>835</v>
       </c>
       <c r="D103" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1307</v>
+        <v>1099</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1199</v>
+        <v>889</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>413</v>
+        <v>835</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>357</v>
+        <v>843</v>
       </c>
       <c r="D105" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>905</v>
+        <v>857</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>937</v>
+        <v>858</v>
       </c>
       <c r="D106" t="n">
-        <v>331</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>248</v>
+        <v>1040</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>97</v>
+        <v>1162</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>860</v>
+        <v>630</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2177,10 +2177,218 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>736</v>
+        <v>859</v>
       </c>
       <c r="D109" t="n">
-        <v>18</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>408</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Dendroplex_picus</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>420</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>777</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Leptodactylus_fragilis</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>623</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>398</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Dendroplex_picus</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>408</v>
+      </c>
+      <c r="D112" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>632</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Leptodactylus_fragilis</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>728</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>404</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Dendroplex_picus</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>373</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Leptodactylus_fuscus</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>240</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Boana_platanera</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>235</v>
+      </c>
+      <c r="D116" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>359</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Dendroplex_picus</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>372</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>631</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Leptodactylus_fragilis</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>727</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>865</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Leptodactylus_fuscus</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1057</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>372</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Dendroplex_picus</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>377</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>377</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Dendroplex_picus</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>372</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>861</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Leptodactylus_fragilis</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>856</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
